--- a/src/test/resources/Team01_APINinja_Data.xlsx
+++ b/src/test/resources/Team01_APINinja_Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanj\vino-workspace\Team01_API_Ninja\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3E64B9-E20A-430C-9544-7AC72CD2B734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56662E9-A8DB-4C20-859F-CCC0E4472ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="PatientPost" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>password</t>
   </si>
@@ -48,13 +49,58 @@
   </si>
   <si>
     <t>Team1.admin@gmail.com</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>PatientContactNumber</t>
+  </si>
+  <si>
+    <t>PatientEmail</t>
+  </si>
+  <si>
+    <t>Allergy</t>
+  </si>
+  <si>
+    <t>FoodPreference</t>
+  </si>
+  <si>
+    <t>CuisineCategory</t>
+  </si>
+  <si>
+    <t>PatientDateOfBirth</t>
+  </si>
+  <si>
+    <t>Kay</t>
+  </si>
+  <si>
+    <t>KAy123@gmail.com</t>
+  </si>
+  <si>
+    <t>SOY</t>
+  </si>
+  <si>
+    <t>Vegan</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Raja</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +115,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,9 +144,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -432,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A42F3D-E348-4D43-8D41-01127598F126}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -463,4 +519,84 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2761C07-8EEF-424C-8E2D-5544ABDA6E0C}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3248649876</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3">
+        <v>44177</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{25FC5110-ABF1-4FD8-A244-EDF356B3C1F3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Team01_APINinja_Data.xlsx
+++ b/src/test/resources/Team01_APINinja_Data.xlsx
@@ -2,41 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanj\vino-workspace\Team01_API_Ninja\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Team 1_RestAssured_Shreya\Team01_APINinja_RestAssured\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3E64B9-E20A-430C-9544-7AC72CD2B734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671F2152-892C-40F2-8C65-867E25E10276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="DietitianPost" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>password</t>
   </si>
@@ -48,6 +38,60 @@
   </si>
   <si>
     <t>Team1.admin@gmail.com</t>
+  </si>
+  <si>
+    <t>ContactNumber</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>HospitalCity</t>
+  </si>
+  <si>
+    <t>HospitalName</t>
+  </si>
+  <si>
+    <t>HospitalPincode</t>
+  </si>
+  <si>
+    <t>HospitalStreet</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Mphars</t>
+  </si>
+  <si>
+    <t>Hartford</t>
+  </si>
+  <si>
+    <t>Saintfrancis</t>
+  </si>
+  <si>
+    <t>Pinwheelstreet</t>
+  </si>
+  <si>
+    <t>Antonyrt</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>2024-07-26T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>Markty</t>
+  </si>
+  <si>
+    <t>shr10@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -432,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A42F3D-E348-4D43-8D41-01127598F126}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,4 +507,96 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749F9484-35A9-4834-A085-E258A8EE6DD3}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>8807306309</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>160741</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{148ED1DC-35F8-480A-83E1-399CAC31362C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Team01_APINinja_Data.xlsx
+++ b/src/test/resources/Team01_APINinja_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanj\vino-workspace\Team01_API_Ninja\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56662E9-A8DB-4C20-859F-CCC0E4472ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A451BA87-9D74-498B-B57D-CAEA463DC19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>Kay</t>
   </si>
   <si>
-    <t>KAy123@gmail.com</t>
-  </si>
-  <si>
     <t>SOY</t>
   </si>
   <si>
@@ -90,15 +87,19 @@
     <t>Indian</t>
   </si>
   <si>
-    <t>Raja</t>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>KAy126@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mmdd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -147,10 +148,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -492,12 +493,12 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -526,22 +527,21 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -563,34 +563,34 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4">
-        <v>3248649876</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3">
+        <v>3248649206</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3">
-        <v>44177</v>
+      <c r="H2" s="2">
+        <v>44550</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Team01_APINinja_Data.xlsx
+++ b/src/test/resources/Team01_APINinja_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Team 1_RestAssured_Shreya\Team01_APINinja_RestAssured\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671F2152-892C-40F2-8C65-867E25E10276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97DF7B4-A580-4365-9865-B3827848A1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="33">
   <si>
     <t>password</t>
   </si>
@@ -91,7 +91,40 @@
     <t>Markty</t>
   </si>
   <si>
-    <t>shr10@gmail.com</t>
+    <t>$5</t>
+  </si>
+  <si>
+    <t>$#</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>20-07-26T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>**D</t>
+  </si>
+  <si>
+    <t>%$</t>
+  </si>
+  <si>
+    <t>shrd2@gmail.com</t>
+  </si>
+  <si>
+    <t>shrd3@gmail.com</t>
+  </si>
+  <si>
+    <t>shrd5@gmail.com</t>
+  </si>
+  <si>
+    <t>shrd6@gmail.com</t>
+  </si>
+  <si>
+    <t>shrd10@gmail.com</t>
+  </si>
+  <si>
+    <t>shrd11@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -115,12 +148,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,9 +187,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -477,7 +532,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,18 +566,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749F9484-35A9-4834-A085-E258A8EE6DD3}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -563,7 +618,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>8807306309</v>
+        <v>5000000300</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -572,7 +627,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -590,12 +645,279 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2">
+        <v>897676</v>
+      </c>
+      <c r="I3" s="2">
+        <v>89</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>897676</v>
+      </c>
+      <c r="I4" s="2">
+        <v>89</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>456</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <v>897676</v>
+      </c>
+      <c r="I5" s="2">
+        <v>89</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5000000302</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2">
+        <v>160741</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5000000303</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5000000304</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>160741</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5000000305</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4">
+        <v>160741</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5000000306</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3">
+        <v>160741</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5000000307</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="3">
+        <v>160741</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{148ED1DC-35F8-480A-83E1-399CAC31362C}"/>
+    <hyperlink ref="D3:D8" r:id="rId2" display="shrd2@gmail.com" xr:uid="{35F4A9EF-8E5F-410C-A472-E261E6366980}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{22EF35AB-2F46-4E4F-BA32-0BD94F05ED75}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{0D38EC72-118F-4EE0-BA2E-856DE2C43369}"/>
+    <hyperlink ref="D10:D11" r:id="rId5" display="shrd4@gmail.com" xr:uid="{EE5DFCDA-4209-48E7-83FD-5F54A83010F5}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{B9570E8A-C132-44AB-865C-AFE30F8D12D3}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{0BCB321A-1BF3-4C16-BE77-B129DBAB0891}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Team01_APINinja_Data.xlsx
+++ b/src/test/resources/Team01_APINinja_Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanj\vino-workspace\Team01_API_Ninja\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A451BA87-9D74-498B-B57D-CAEA463DC19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37188DF-46D6-4B6C-AD93-D013563078EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
     <sheet name="PatientPost" sheetId="2" r:id="rId2"/>
+    <sheet name="PatientPut" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>password</t>
   </si>
@@ -90,18 +91,58 @@
     <t>Sam</t>
   </si>
   <si>
-    <t>KAy126@gmail.com</t>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Teamone</t>
+  </si>
+  <si>
+    <t>WALNUT</t>
+  </si>
+  <si>
+    <t>Rajasthani</t>
+  </si>
+  <si>
+    <t>KAy131@gmail.com</t>
+  </si>
+  <si>
+    <t>EGGETARIAN</t>
+  </si>
+  <si>
+    <t>Teamoneput</t>
+  </si>
+  <si>
+    <t>Updating only pdf file ,no need to change the data</t>
+  </si>
+  <si>
+    <t>Change any data with pdf file</t>
+  </si>
+  <si>
+    <t>Change any data without pdf</t>
+  </si>
+  <si>
+    <t>update any data with existing pdf file</t>
+  </si>
+  <si>
+    <t>update any date without adding pdf file</t>
+  </si>
+  <si>
+    <t>KAy1350@gmail.com</t>
+  </si>
+  <si>
+    <t>Mario1051@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mmdd"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +163,12 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,13 +192,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -524,7 +574,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2761C07-8EEF-424C-8E2D-5544ABDA6E0C}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3248649250</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2">
+        <v>32110</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>8608306851</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5">
+        <v>31865</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{25FC5110-ABF1-4FD8-A244-EDF356B3C1F3}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{61927ED1-99FE-47ED-A36A-F34207D1883B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93535F0-6035-4EDE-887A-CE1201C26BCB}">
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -532,16 +695,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -563,22 +725,22 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3">
-        <v>3248649206</v>
+        <v>3248649253</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
@@ -589,14 +751,78 @@
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2">
-        <v>44550</v>
+      <c r="H2" s="8">
+        <v>33967</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>8608306852</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5">
+        <v>31865</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>8608306851</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5">
+        <v>31865</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{25FC5110-ABF1-4FD8-A244-EDF356B3C1F3}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{5FC30086-0FD1-44DF-94A5-9E22212D0869}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{DB932A1C-5CAF-47A9-8E90-D8C7A057B0E5}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{EBCDC3F5-7C4B-43D7-B5DA-E56EE05384BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/src/test/resources/Team01_APINinja_Data.xlsx
+++ b/src/test/resources/Team01_APINinja_Data.xlsx
@@ -2,41 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanj\vino-workspace\Team01_API_Ninja\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3E64B9-E20A-430C-9544-7AC72CD2B734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6693D520-0199-4E72-98BE-9A5E94EA4AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="DietitianPost" sheetId="2" r:id="rId2"/>
+    <sheet name="DieticianPUT" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="K1:U16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>password</t>
   </si>
@@ -48,6 +35,147 @@
   </si>
   <si>
     <t>Team1.admin@gmail.com</t>
+  </si>
+  <si>
+    <t>ContactNumber</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>HospitalCity</t>
+  </si>
+  <si>
+    <t>HospitalName</t>
+  </si>
+  <si>
+    <t>HospitalPincode</t>
+  </si>
+  <si>
+    <t>HospitalStreet</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Mphars</t>
+  </si>
+  <si>
+    <t>Hartford</t>
+  </si>
+  <si>
+    <t>Saintfrancis</t>
+  </si>
+  <si>
+    <t>Pinwheelstreet</t>
+  </si>
+  <si>
+    <t>Antonyrt</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>2024-07-26T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>Markty</t>
+  </si>
+  <si>
+    <t>$5</t>
+  </si>
+  <si>
+    <t>$#</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>20-07-26T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>**D</t>
+  </si>
+  <si>
+    <t>%$</t>
+  </si>
+  <si>
+    <t>shrd2@gmail.com</t>
+  </si>
+  <si>
+    <t>shrd3@gmail.com</t>
+  </si>
+  <si>
+    <t>shrd5@gmail.com</t>
+  </si>
+  <si>
+    <t>shrd6@gmail.com</t>
+  </si>
+  <si>
+    <t>shrd10@gmail.com</t>
+  </si>
+  <si>
+    <t>shrd11@gmail.com</t>
+  </si>
+  <si>
+    <t>1985-07-26T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>Mpharm</t>
+  </si>
+  <si>
+    <t>Mark2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Monique</t>
+  </si>
+  <si>
+    <t>Evergreen</t>
+  </si>
+  <si>
+    <t>Redmond</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>Ibsen</t>
+  </si>
+  <si>
+    <t>put_ContactNumber</t>
+  </si>
+  <si>
+    <t>put_DateOfBirth</t>
+  </si>
+  <si>
+    <t>put_Education</t>
+  </si>
+  <si>
+    <t>put_Email</t>
+  </si>
+  <si>
+    <t>put_Firstname</t>
+  </si>
+  <si>
+    <t>put_HospitalCity</t>
+  </si>
+  <si>
+    <t>put_HospitalName</t>
+  </si>
+  <si>
+    <t>put_HospitalPincode</t>
+  </si>
+  <si>
+    <t>put_HospitalStreet</t>
+  </si>
+  <si>
+    <t>put_Lastname</t>
   </si>
 </sst>
 </file>
@@ -71,12 +199,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,9 +238,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -432,16 +582,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A42F3D-E348-4D43-8D41-01127598F126}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -463,4 +613,477 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749F9484-35A9-4834-A085-E258A8EE6DD3}">
+  <dimension ref="A1:T11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7265625" customWidth="1"/>
+    <col min="12" max="12" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.08984375" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>5000000300</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>160741</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2">
+        <v>897676</v>
+      </c>
+      <c r="I3" s="2">
+        <v>89</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>897676</v>
+      </c>
+      <c r="I4" s="2">
+        <v>89</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>456</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <v>897676</v>
+      </c>
+      <c r="I5" s="2">
+        <v>89</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5" s="1"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+    </row>
+    <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5000000302</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2">
+        <v>160741</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5000000303</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5000000304</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>160741</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>5000000305</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4">
+        <v>160741</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>5000000306</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3">
+        <v>160741</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>5000000307</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="3">
+        <v>160741</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{148ED1DC-35F8-480A-83E1-399CAC31362C}"/>
+    <hyperlink ref="D3:D8" r:id="rId2" display="shrd2@gmail.com" xr:uid="{35F4A9EF-8E5F-410C-A472-E261E6366980}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{22EF35AB-2F46-4E4F-BA32-0BD94F05ED75}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{0D38EC72-118F-4EE0-BA2E-856DE2C43369}"/>
+    <hyperlink ref="D10:D11" r:id="rId5" display="shrd4@gmail.com" xr:uid="{EE5DFCDA-4209-48E7-83FD-5F54A83010F5}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{B9570E8A-C132-44AB-865C-AFE30F8D12D3}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{0BCB321A-1BF3-4C16-BE77-B129DBAB0891}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A927A38E-4379-43CA-9009-186147D505B4}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>7607306122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>98034</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{C2B88BE2-3F3D-4173-9A30-715F9F86DE9D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Team01_APINinja_Data.xlsx
+++ b/src/test/resources/Team01_APINinja_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Team 1_RestAssured_Shreya\Team01_APINinja_RestAssured\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97DF7B4-A580-4365-9865-B3827848A1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B60594-8F0C-41CA-9037-AE931EAF2224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
   <si>
     <t>password</t>
   </si>
@@ -121,10 +121,37 @@
     <t>shrd6@gmail.com</t>
   </si>
   <si>
-    <t>shrd10@gmail.com</t>
-  </si>
-  <si>
     <t>shrd11@gmail.com</t>
+  </si>
+  <si>
+    <t>JoJo</t>
+  </si>
+  <si>
+    <t>Jhon</t>
+  </si>
+  <si>
+    <t>shrd47@gmail.com</t>
+  </si>
+  <si>
+    <t>djshfjh</t>
+  </si>
+  <si>
+    <t>put operation on post request</t>
+  </si>
+  <si>
+    <t>invalid end point</t>
+  </si>
+  <si>
+    <t>invalid content type</t>
+  </si>
+  <si>
+    <t>no auth,using dietitian token, patient token</t>
+  </si>
+  <si>
+    <t>shrd70@gmail.com</t>
+  </si>
+  <si>
+    <t>shrd71@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -148,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,19 +184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,10 +205,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -566,10 +581,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749F9484-35A9-4834-A085-E258A8EE6DD3}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,9 +597,10 @@
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -616,50 +632,53 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>5000000300</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>5000001000</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>160741</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>5000001001</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
@@ -668,26 +687,24 @@
         <v>15</v>
       </c>
       <c r="H3" s="2">
-        <v>897676</v>
-      </c>
-      <c r="I3" s="2">
-        <v>89</v>
+        <v>160741</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -709,9 +726,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>456</v>
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
@@ -719,7 +736,7 @@
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -741,14 +758,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5000000302</v>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>456</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -761,163 +781,242 @@
         <v>15</v>
       </c>
       <c r="H6" s="2">
+        <v>897676</v>
+      </c>
+      <c r="I6" s="2">
+        <v>89</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5000001002</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4">
+        <v>53</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5000001003</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>5000001004</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2">
         <v>160741</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>5000001005</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2">
+        <v>160741</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5000000303</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="K10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>5000001006</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5000000304</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2">
+        <v>160741</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>5000001007</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8">
+      <c r="H12" s="2">
         <v>160741</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5000000305</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="J12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>5000001008</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H13" s="2">
         <v>160741</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J13" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5000000306</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="3">
-        <v>160741</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>5000000307</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="3">
-        <v>160741</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>17</v>
+      <c r="K13" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{148ED1DC-35F8-480A-83E1-399CAC31362C}"/>
-    <hyperlink ref="D3:D8" r:id="rId2" display="shrd2@gmail.com" xr:uid="{35F4A9EF-8E5F-410C-A472-E261E6366980}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{22EF35AB-2F46-4E4F-BA32-0BD94F05ED75}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{0D38EC72-118F-4EE0-BA2E-856DE2C43369}"/>
-    <hyperlink ref="D10:D11" r:id="rId5" display="shrd4@gmail.com" xr:uid="{EE5DFCDA-4209-48E7-83FD-5F54A83010F5}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{B9570E8A-C132-44AB-865C-AFE30F8D12D3}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{0BCB321A-1BF3-4C16-BE77-B129DBAB0891}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{22EF35AB-2F46-4E4F-BA32-0BD94F05ED75}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{0D38EC72-118F-4EE0-BA2E-856DE2C43369}"/>
+    <hyperlink ref="D11:D12" r:id="rId4" display="shrd4@gmail.com" xr:uid="{EE5DFCDA-4209-48E7-83FD-5F54A83010F5}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{B9570E8A-C132-44AB-865C-AFE30F8D12D3}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{0BCB321A-1BF3-4C16-BE77-B129DBAB0891}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{7F020AD9-0287-441A-A836-7EAA8314E224}"/>
+    <hyperlink ref="D3" r:id="rId8" xr:uid="{4FE9774A-4B22-460C-81E1-E1B57FC82D7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Team01_APINinja_Data.xlsx
+++ b/src/test/resources/Team01_APINinja_Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanj\vino-workspace\Team01_API_Ninja\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37188DF-46D6-4B6C-AD93-D013563078EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBDE69F-6F56-47B0-A80B-6A69B9037C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
     <sheet name="PatientPost" sheetId="2" r:id="rId2"/>
     <sheet name="PatientPut" sheetId="3" r:id="rId3"/>
+    <sheet name="Patientputvital" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>password</t>
   </si>
@@ -112,25 +113,88 @@
     <t>Teamoneput</t>
   </si>
   <si>
-    <t>Updating only pdf file ,no need to change the data</t>
-  </si>
-  <si>
     <t>Change any data with pdf file</t>
   </si>
   <si>
     <t>Change any data without pdf</t>
   </si>
   <si>
-    <t>update any data with existing pdf file</t>
-  </si>
-  <si>
-    <t>update any date without adding pdf file</t>
-  </si>
-  <si>
     <t>KAy1350@gmail.com</t>
   </si>
   <si>
     <t>Mario1051@gmail.com</t>
+  </si>
+  <si>
+    <t>invalid Mandatory data</t>
+  </si>
+  <si>
+    <t>Sue12</t>
+  </si>
+  <si>
+    <t>katie1</t>
+  </si>
+  <si>
+    <t>jaf54@gmail.com</t>
+  </si>
+  <si>
+    <t>123-12-30</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Swamy</t>
+  </si>
+  <si>
+    <t>Ramy@gmail.com</t>
+  </si>
+  <si>
+    <t>Valid Mandatory invalid additional field</t>
+  </si>
+  <si>
+    <t>Ve%gan</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update any data focus only Mandatory and additional details  without adding pdf file  (update either email or DOB) </t>
+  </si>
+  <si>
+    <t>Updating only pdf file ,no need to change the data(NO data update)</t>
+  </si>
+  <si>
+    <t>update any data with existing pdf file (update either contact number or food preference)</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>invalid additional field</t>
+  </si>
+  <si>
+    <t>Wal@nut</t>
+  </si>
+  <si>
+    <t>West Vegan</t>
+  </si>
+  <si>
+    <t>Indiaaa</t>
+  </si>
+  <si>
+    <t>team123@gmail.com</t>
+  </si>
+  <si>
+    <t>Valid data</t>
+  </si>
+  <si>
+    <t>invalid data</t>
   </si>
 </sst>
 </file>
@@ -537,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A42F3D-E348-4D43-8D41-01127598F126}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +612,7 @@
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,17 +620,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{4EBEBFA7-2488-42FB-B465-9C193BD3C70E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{C52AFF14-183F-404A-A159-9C5E46F6B1F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -574,10 +653,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2761C07-8EEF-424C-8E2D-5544ABDA6E0C}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +667,7 @@
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -613,7 +692,7 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -628,7 +707,7 @@
         <v>3248649250</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
@@ -639,11 +718,11 @@
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="8">
         <v>32110</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -657,7 +736,7 @@
         <v>8608306851</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -668,29 +747,89 @@
       <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="7">
         <v>31865</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>3457899</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>8408305647</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7">
+        <v>31865</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{25FC5110-ABF1-4FD8-A244-EDF356B3C1F3}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{61927ED1-99FE-47ED-A36A-F34207D1883B}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{3AC634B2-EE07-47BC-8F0A-8DE85105F4CD}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{4C4FBBF4-4DBC-4035-B8E5-3DCFE6E11CBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93535F0-6035-4EDE-887A-CE1201C26BCB}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,75 +893,157 @@
       <c r="H2" s="8">
         <v>33967</v>
       </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
       <c r="L2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>8608306852</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="5">
-        <v>31865</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3248649253</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8">
+        <v>33967</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>8608306851</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="5">
-        <v>31865</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3248649253</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="8">
+        <v>33967</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3248649253</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="8">
+        <v>33967</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{5FC30086-0FD1-44DF-94A5-9E22212D0869}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{DB932A1C-5CAF-47A9-8E90-D8C7A057B0E5}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{EBCDC3F5-7C4B-43D7-B5DA-E56EE05384BE}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{A2D994B3-51BC-42B8-AF2E-6454766E2303}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{3987B665-0136-4C24-9EFD-057587B1C236}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{0F3A3A78-92A9-48FC-9C8A-FB9AF8FD3B22}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{7650373E-8BAB-4A22-B95F-F0627991A046}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1507267-6321-4AFA-A423-A62ECE9DF42B}">
+  <dimension ref="D1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="4:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D2" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Team01_APINinja_Data.xlsx
+++ b/src/test/resources/Team01_APINinja_Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Team 1_RestAssured_Shreya\Team01_APINinja_RestAssured\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B60594-8F0C-41CA-9037-AE931EAF2224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEB7EA9-B585-405D-9EBF-BF1015F7A639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
     <sheet name="DietitianPost" sheetId="2" r:id="rId2"/>
+    <sheet name="DietitianPut" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
   <si>
     <t>password</t>
   </si>
@@ -148,10 +149,34 @@
     <t>no auth,using dietitian token, patient token</t>
   </si>
   <si>
-    <t>shrd70@gmail.com</t>
-  </si>
-  <si>
-    <t>shrd71@gmail.com</t>
+    <t>JhonM</t>
+  </si>
+  <si>
+    <t>HartfordC</t>
+  </si>
+  <si>
+    <t>SaintfrancisC</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>2024-07-29T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>shre1@gmail.com</t>
+  </si>
+  <si>
+    <t>BTEch1</t>
+  </si>
+  <si>
+    <t>shrd90@gmail.com</t>
+  </si>
+  <si>
+    <t>shrd91@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -202,10 +227,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -547,7 +571,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,7 +608,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,378 +656,378 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>5000001000</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5000002014</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>160741</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>5000001001</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5000002015</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>160741</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>897676</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>89</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>897676</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>89</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>456</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>897676</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>89</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>5000001002</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>53</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>5000001003</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>5000001004</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
         <v>160741</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>5000001005</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
         <v>160741</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>5000001006</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <v>160741</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>5000001007</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>160741</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>5000001008</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <v>160741</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1020,4 +1044,97 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50FE735-FDD6-4232-806D-9C0403FC55E2}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5000002540</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2">
+        <v>100000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{9E71020C-F5B4-44B9-8596-92A2E9F7A032}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Team01_APINinja_Data.xlsx
+++ b/src/test/resources/Team01_APINinja_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanj\vino-workspace\Team01_API_Ninja\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBDE69F-6F56-47B0-A80B-6A69B9037C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177F4019-F343-4A87-96C8-36806A709A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>password</t>
   </si>
@@ -119,12 +119,6 @@
     <t>Change any data without pdf</t>
   </si>
   <si>
-    <t>KAy1350@gmail.com</t>
-  </si>
-  <si>
-    <t>Mario1051@gmail.com</t>
-  </si>
-  <si>
     <t>invalid Mandatory data</t>
   </si>
   <si>
@@ -195,16 +189,36 @@
   </si>
   <si>
     <t>invalid data</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>KAy1354@gmail.com</t>
+  </si>
+  <si>
+    <t>Mario1065@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mmdd"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -256,16 +270,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -603,7 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A42F3D-E348-4D43-8D41-01127598F126}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -628,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -636,10 +649,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
         <v>49</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -655,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2761C07-8EEF-424C-8E2D-5544ABDA6E0C}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +680,7 @@
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -692,7 +705,7 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -704,10 +717,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="3">
-        <v>3248649250</v>
+        <v>3248649254</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
@@ -718,8 +731,8 @@
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8">
-        <v>32110</v>
+      <c r="H2" s="7">
+        <v>32476</v>
       </c>
       <c r="K2" t="s">
         <v>24</v>
@@ -733,10 +746,10 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>8608306851</v>
+        <v>8608306865</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -744,11 +757,11 @@
       <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="7">
-        <v>31865</v>
+      <c r="H3" s="6">
+        <v>32227</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -756,60 +769,60 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>3457899</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>32</v>
+      <c r="H6" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>8408305647</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="7">
+        <v>36</v>
+      </c>
+      <c r="H7" s="6">
         <v>31865</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -839,7 +852,7 @@
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -864,7 +877,7 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -890,14 +903,14 @@
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>33967</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -922,14 +935,14 @@
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>33967</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -954,14 +967,14 @@
       <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>33967</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -978,22 +991,22 @@
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>33967</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1002,7 +1015,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1019,29 +1032,47 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1507267-6321-4AFA-A423-A62ECE9DF42B}">
-  <dimension ref="D1:H2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="4:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>70.2</v>
+      </c>
+      <c r="B2">
+        <v>165.5</v>
+      </c>
+      <c r="C2">
+        <v>98.3</v>
+      </c>
+      <c r="D2">
+        <v>34</v>
+      </c>
+      <c r="E2">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/Team01_APINinja_Data.xlsx
+++ b/src/test/resources/Team01_APINinja_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Team 1_RestAssured_Shreya\Team01_APINinja_RestAssured\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEB7EA9-B585-405D-9EBF-BF1015F7A639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C16E91B-AD83-46AA-A941-8BC75D4D13F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="57">
   <si>
     <t>password</t>
   </si>
@@ -167,16 +167,37 @@
     <t>2024-07-29T18:14:08.570Z</t>
   </si>
   <si>
-    <t>shre1@gmail.com</t>
-  </si>
-  <si>
     <t>BTEch1</t>
   </si>
   <si>
-    <t>shrd90@gmail.com</t>
-  </si>
-  <si>
-    <t>shrd91@gmail.com</t>
+    <t>gjss</t>
+  </si>
+  <si>
+    <t>&amp;B</t>
+  </si>
+  <si>
+    <t>inavlid userid</t>
+  </si>
+  <si>
+    <t>shre3@gmail.com</t>
+  </si>
+  <si>
+    <t>inavlid method</t>
+  </si>
+  <si>
+    <t>inavlid endpoint</t>
+  </si>
+  <si>
+    <t>shre12@gmail.com</t>
+  </si>
+  <si>
+    <t>shre13@gmail.com</t>
+  </si>
+  <si>
+    <t>shrd202@gmail.com</t>
+  </si>
+  <si>
+    <t>shrd203@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -607,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749F9484-35A9-4834-A085-E258A8EE6DD3}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,7 +679,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5000002014</v>
+        <v>5000003002</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -667,7 +688,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>33</v>
@@ -690,7 +711,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>5000002015</v>
+        <v>5000003003</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -699,7 +720,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -816,7 +837,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5000001002</v>
+        <v>5000003004</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -845,7 +866,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5000001003</v>
+        <v>5000003005</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -861,7 +882,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5000001004</v>
+        <v>5000003006</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -893,7 +914,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5000001005</v>
+        <v>5000003007</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -928,7 +949,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>5000001006</v>
+        <v>5000003008</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -963,7 +984,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5000001007</v>
+        <v>5000003009</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -998,7 +1019,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>5000001008</v>
+        <v>5000003010</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -1033,14 +1054,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{148ED1DC-35F8-480A-83E1-399CAC31362C}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{22EF35AB-2F46-4E4F-BA32-0BD94F05ED75}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{0D38EC72-118F-4EE0-BA2E-856DE2C43369}"/>
-    <hyperlink ref="D11:D12" r:id="rId4" display="shrd4@gmail.com" xr:uid="{EE5DFCDA-4209-48E7-83FD-5F54A83010F5}"/>
-    <hyperlink ref="D11" r:id="rId5" xr:uid="{B9570E8A-C132-44AB-865C-AFE30F8D12D3}"/>
-    <hyperlink ref="D12" r:id="rId6" xr:uid="{0BCB321A-1BF3-4C16-BE77-B129DBAB0891}"/>
-    <hyperlink ref="D13" r:id="rId7" xr:uid="{7F020AD9-0287-441A-A836-7EAA8314E224}"/>
-    <hyperlink ref="D3" r:id="rId8" xr:uid="{4FE9774A-4B22-460C-81E1-E1B57FC82D7A}"/>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{22EF35AB-2F46-4E4F-BA32-0BD94F05ED75}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{0D38EC72-118F-4EE0-BA2E-856DE2C43369}"/>
+    <hyperlink ref="D11:D12" r:id="rId3" display="shrd4@gmail.com" xr:uid="{EE5DFCDA-4209-48E7-83FD-5F54A83010F5}"/>
+    <hyperlink ref="D11" r:id="rId4" xr:uid="{B9570E8A-C132-44AB-865C-AFE30F8D12D3}"/>
+    <hyperlink ref="D12" r:id="rId5" xr:uid="{0BCB321A-1BF3-4C16-BE77-B129DBAB0891}"/>
+    <hyperlink ref="D13" r:id="rId6" xr:uid="{7F020AD9-0287-441A-A836-7EAA8314E224}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{4FE9774A-4B22-460C-81E1-E1B57FC82D7A}"/>
+    <hyperlink ref="D2" r:id="rId8" xr:uid="{D0A0D4E7-6281-4617-8DA7-DD9D26613C67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1048,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50FE735-FDD6-4232-806D-9C0403FC55E2}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,7 +1088,7 @@
     <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1099,18 +1120,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5000002540</v>
+        <v>5100000001</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
@@ -1129,11 +1150,151 @@
       </c>
       <c r="J2" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>76</v>
+      </c>
+      <c r="I3">
+        <v>89</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5100000002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4">
+        <v>100000</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5100000003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <v>100000</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5100000004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <v>100000</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{9E71020C-F5B4-44B9-8596-92A2E9F7A032}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{DDA97448-768E-4108-9FBE-2605B10F3A9A}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{C9D17CDE-4484-466E-97D1-E64FE1F8013F}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{147342B8-3B6D-4E0D-94F2-89D4EB988FCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Team01_APINinja_Data.xlsx
+++ b/src/test/resources/Team01_APINinja_Data.xlsx
@@ -2,21 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanj\vino-workspace\Team01_API_Ninja\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Team 1_RestAssured_Shreya\Team01_APINinja_RestAssured\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177F4019-F343-4A87-96C8-36806A709A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D8FC5C-349E-4B57-9458-E6F761B4B194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
     <sheet name="PatientPost" sheetId="2" r:id="rId2"/>
     <sheet name="PatientPut" sheetId="3" r:id="rId3"/>
     <sheet name="Patientputvital" sheetId="4" r:id="rId4"/>
+    <sheet name="DietitianPost" sheetId="5" r:id="rId5"/>
+    <sheet name="DietitianPut" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="110">
   <si>
     <t>password</t>
   </si>
@@ -210,6 +212,165 @@
   </si>
   <si>
     <t>Mario1065@gmail.com</t>
+  </si>
+  <si>
+    <t>ContactNumber</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>HospitalCity</t>
+  </si>
+  <si>
+    <t>HospitalName</t>
+  </si>
+  <si>
+    <t>HospitalPincode</t>
+  </si>
+  <si>
+    <t>HospitalStreet</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>2024-07-26T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>Mphars</t>
+  </si>
+  <si>
+    <t>shrd202@gmail.com</t>
+  </si>
+  <si>
+    <t>Jhon</t>
+  </si>
+  <si>
+    <t>Hartford</t>
+  </si>
+  <si>
+    <t>Saintfrancis</t>
+  </si>
+  <si>
+    <t>Pinwheelstreet</t>
+  </si>
+  <si>
+    <t>Antonyrt</t>
+  </si>
+  <si>
+    <t>shrd203@gmail.com</t>
+  </si>
+  <si>
+    <t>JoJo</t>
+  </si>
+  <si>
+    <t>$5</t>
+  </si>
+  <si>
+    <t>shrd2@gmail.com</t>
+  </si>
+  <si>
+    <t>Markty</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>$#</t>
+  </si>
+  <si>
+    <t>20-07-26T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>djshfjh</t>
+  </si>
+  <si>
+    <t>shrd3@gmail.com</t>
+  </si>
+  <si>
+    <t>**D</t>
+  </si>
+  <si>
+    <t>%$</t>
+  </si>
+  <si>
+    <t>shrd11@gmail.com</t>
+  </si>
+  <si>
+    <t>put operation on post request</t>
+  </si>
+  <si>
+    <t>shrd5@gmail.com</t>
+  </si>
+  <si>
+    <t>invalid end point</t>
+  </si>
+  <si>
+    <t>shrd6@gmail.com</t>
+  </si>
+  <si>
+    <t>invalid content type</t>
+  </si>
+  <si>
+    <t>shrd47@gmail.com</t>
+  </si>
+  <si>
+    <t>no auth,using dietitian token, patient token</t>
+  </si>
+  <si>
+    <t>2024-07-29T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>BTEch1</t>
+  </si>
+  <si>
+    <t>shre12@gmail.com</t>
+  </si>
+  <si>
+    <t>JhonM</t>
+  </si>
+  <si>
+    <t>HartfordC</t>
+  </si>
+  <si>
+    <t>SaintfrancisC</t>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>gjss</t>
+  </si>
+  <si>
+    <t>&amp;B</t>
+  </si>
+  <si>
+    <t>shre13@gmail.com</t>
+  </si>
+  <si>
+    <t>inavlid userid</t>
+  </si>
+  <si>
+    <t>shre3@gmail.com</t>
+  </si>
+  <si>
+    <t>inavlid method</t>
+  </si>
+  <si>
+    <t>inavlid endpoint</t>
   </si>
 </sst>
 </file>
@@ -249,12 +410,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -270,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -279,6 +446,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -620,12 +790,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -644,7 +814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -668,22 +838,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2761C07-8EEF-424C-8E2D-5544ABDA6E0C}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -709,7 +879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -738,7 +908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -767,7 +937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -796,7 +966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -845,17 +1015,17 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -881,7 +1051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -913,7 +1083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -945,7 +1115,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -977,7 +1147,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1009,7 +1179,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="2"/>
@@ -1038,9 +1208,9 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -1057,7 +1227,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>70.2</v>
       </c>
@@ -1077,4 +1247,680 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7FEC81-31E7-4ED5-8219-1CA44B6053AB}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5000003002</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2">
+        <v>160741</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5000003003</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3">
+        <v>160741</v>
+      </c>
+      <c r="I3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4">
+        <v>897676</v>
+      </c>
+      <c r="I4">
+        <v>89</v>
+      </c>
+      <c r="J4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5">
+        <v>897676</v>
+      </c>
+      <c r="I5">
+        <v>89</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>456</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6">
+        <v>897676</v>
+      </c>
+      <c r="I6">
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5000003004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="9">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5000003005</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5000003006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9">
+        <v>160741</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5000003007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10">
+        <v>160741</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5000003008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11">
+        <v>160741</v>
+      </c>
+      <c r="I11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5000003009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12">
+        <v>160741</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5000003010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13">
+        <v>160741</v>
+      </c>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{556535E6-8C0A-4740-94C3-7800AC9A7C52}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{B5AEB2F4-1187-4363-B695-D76030C2C16C}"/>
+    <hyperlink ref="D11:D12" r:id="rId3" display="shrd4@gmail.com" xr:uid="{735B9889-85BB-4B1A-BC9B-A6A546674299}"/>
+    <hyperlink ref="D11" r:id="rId4" xr:uid="{3BBBAEDA-489D-4EA9-A771-F8C768286B5E}"/>
+    <hyperlink ref="D12" r:id="rId5" xr:uid="{4DEEF4FA-E4A5-4529-AD21-AD6D35657CCB}"/>
+    <hyperlink ref="D13" r:id="rId6" xr:uid="{AC17A89C-445D-44C9-8E51-D291100FB472}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{7FCAEDD7-3D8F-4EBB-99A8-30F49B9FD94D}"/>
+    <hyperlink ref="D2" r:id="rId8" xr:uid="{829BC1A9-A3D0-439D-8D54-E5F79B3621D5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0117F567-C23E-457A-B636-6C283C408E37}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5100000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>100000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3">
+        <v>76</v>
+      </c>
+      <c r="I3">
+        <v>89</v>
+      </c>
+      <c r="J3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5100000002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>100000</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5100000003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>100000</v>
+      </c>
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5100000004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>100000</v>
+      </c>
+      <c r="I6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{1C3CECE6-8C56-4137-B723-F70DAAE00BAF}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{5C6C9DFF-A935-436A-ABD0-B97F8E735236}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{CC0CA031-A105-42F3-AA89-870107C7FA77}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{CB3E66F7-E43B-403A-BDEC-BB6521DE56A1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Team01_APINinja_Data.xlsx
+++ b/src/test/resources/Team01_APINinja_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Team 1_RestAssured_Shreya\Team01_APINinja_RestAssured\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanj\vino-workspace\Team01_API_Ninja\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D8FC5C-349E-4B57-9458-E6F761B4B194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22852B4C-A82B-4309-B428-9EDD156CEEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -790,12 +790,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -814,7 +814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -842,18 +842,18 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -879,7 +879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -908,7 +908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -937,7 +937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -966,7 +966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1015,17 +1015,17 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="2"/>
@@ -1208,9 +1208,9 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>70.2</v>
       </c>
@@ -1257,20 +1257,20 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5000003002</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5000003003</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" t="s">
         <v>67</v>
@@ -1396,7 +1396,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>81</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>456</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5000003004</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5000003005</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5000003006</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5000003007</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5000003008</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5000003009</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5000003010</v>
       </c>
@@ -1700,20 +1700,20 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5100000001</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>81</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5100000002</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5100000003</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5100000004</v>
       </c>

--- a/src/test/resources/Team01_APINinja_Data.xlsx
+++ b/src/test/resources/Team01_APINinja_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanj\vino-workspace\Team01_API_Ninja\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22852B4C-A82B-4309-B428-9EDD156CEEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E36432-BE61-4DF4-A280-CC777853E308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="114">
   <si>
     <t>password</t>
   </si>
@@ -208,12 +208,6 @@
     <t>DP</t>
   </si>
   <si>
-    <t>KAy1354@gmail.com</t>
-  </si>
-  <si>
-    <t>Mario1065@gmail.com</t>
-  </si>
-  <si>
     <t>ContactNumber</t>
   </si>
   <si>
@@ -250,9 +244,6 @@
     <t>Mphars</t>
   </si>
   <si>
-    <t>shrd202@gmail.com</t>
-  </si>
-  <si>
     <t>Jhon</t>
   </si>
   <si>
@@ -268,9 +259,6 @@
     <t>Antonyrt</t>
   </si>
   <si>
-    <t>shrd203@gmail.com</t>
-  </si>
-  <si>
     <t>JoJo</t>
   </si>
   <si>
@@ -334,9 +322,6 @@
     <t>BTEch1</t>
   </si>
   <si>
-    <t>shre12@gmail.com</t>
-  </si>
-  <si>
     <t>JhonM</t>
   </si>
   <si>
@@ -371,6 +356,33 @@
   </si>
   <si>
     <t>inavlid endpoint</t>
+  </si>
+  <si>
+    <t>KAy141@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-08-26T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>shrd2022@gmail.com</t>
+  </si>
+  <si>
+    <t>2024-09-26T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>shrd2032@gmail.com</t>
+  </si>
+  <si>
+    <t>2024-09-29T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>shre1234@gmail.com</t>
+  </si>
+  <si>
+    <t>Mario1070@gmail.com</t>
+  </si>
+  <si>
+    <t>KAy1455@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -838,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2761C07-8EEF-424C-8E2D-5544ABDA6E0C}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,10 +899,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="3">
-        <v>3248649254</v>
+        <v>3248649257</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
@@ -902,7 +914,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="7">
-        <v>32476</v>
+        <v>32840</v>
       </c>
       <c r="K2" t="s">
         <v>24</v>
@@ -916,10 +928,10 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>8608306865</v>
+        <v>8608306867</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -931,7 +943,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="6">
-        <v>32227</v>
+        <v>32623</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -1012,7 +1024,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,10 +1071,10 @@
         <v>23</v>
       </c>
       <c r="C2" s="3">
-        <v>3248649253</v>
+        <v>3248649255</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
@@ -1091,7 +1103,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="3">
-        <v>3248649253</v>
+        <v>3248649255</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>21</v>
@@ -1106,7 +1118,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="7">
-        <v>33967</v>
+        <v>33937</v>
       </c>
       <c r="K3" t="s">
         <v>41</v>
@@ -1202,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1507267-6321-4AFA-A423-A62ECE9DF42B}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,6 +1254,23 @@
       </c>
       <c r="E2">
         <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>175</v>
+      </c>
+      <c r="C3">
+        <v>96.5</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1254,7 +1283,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,119 +1301,119 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>64</v>
-      </c>
-      <c r="I1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5000003002</v>
+        <v>5000003031</v>
       </c>
       <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="G2" t="s">
         <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
       </c>
       <c r="H2">
         <v>160741</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5000003003</v>
+        <v>5000003021</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>71</v>
-      </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H3">
         <v>160741</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H4">
         <v>897676</v>
@@ -1393,30 +1422,30 @@
         <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H5">
         <v>897676</v>
@@ -1425,7 +1454,7 @@
         <v>89</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1433,22 +1462,22 @@
         <v>456</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H6">
         <v>897676</v>
@@ -1457,45 +1486,45 @@
         <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5000003004</v>
+        <v>5000003030</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H7" s="9">
         <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5000003005</v>
+        <v>5000003040</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
@@ -1510,31 +1539,31 @@
         <v>5000003006</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H9">
         <v>160741</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1542,34 +1571,34 @@
         <v>5000003007</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" t="s">
-        <v>71</v>
-      </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H10">
         <v>160741</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1577,34 +1606,34 @@
         <v>5000003008</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" t="s">
-        <v>71</v>
-      </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H11">
         <v>160741</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1612,34 +1641,34 @@
         <v>5000003009</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" t="s">
-        <v>71</v>
-      </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H12">
         <v>160741</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1647,34 +1676,34 @@
         <v>5000003010</v>
       </c>
       <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
         <v>67</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H13">
         <v>160741</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1696,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0117F567-C23E-457A-B636-6C283C408E37}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,89 +1744,89 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>64</v>
-      </c>
-      <c r="I1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5100000001</v>
+        <v>5100000201</v>
       </c>
       <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
         <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" t="s">
-        <v>100</v>
       </c>
       <c r="H2">
         <v>100000</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H3">
         <v>76</v>
@@ -1806,7 +1835,7 @@
         <v>89</v>
       </c>
       <c r="J3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1814,34 +1843,34 @@
         <v>5100000002</v>
       </c>
       <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
         <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" t="s">
-        <v>100</v>
       </c>
       <c r="H4">
         <v>100000</v>
       </c>
       <c r="I4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" t="s">
         <v>101</v>
-      </c>
-      <c r="J4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1849,34 +1878,34 @@
         <v>5100000003</v>
       </c>
       <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
         <v>95</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" t="s">
-        <v>100</v>
       </c>
       <c r="H5">
         <v>100000</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1884,34 +1913,34 @@
         <v>5100000004</v>
       </c>
       <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" t="s">
         <v>95</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" t="s">
-        <v>100</v>
       </c>
       <c r="H6">
         <v>100000</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Team01_APINinja_Data.xlsx
+++ b/src/test/resources/Team01_APINinja_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanj\vino-workspace\Team01_API_Ninja\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E36432-BE61-4DF4-A280-CC777853E308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD814A6-9E25-4CF2-BE2D-30DA8152B58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="110">
   <si>
     <t>password</t>
   </si>
@@ -106,15 +106,9 @@
     <t>Rajasthani</t>
   </si>
   <si>
-    <t>KAy131@gmail.com</t>
-  </si>
-  <si>
     <t>EGGETARIAN</t>
   </si>
   <si>
-    <t>Teamoneput</t>
-  </si>
-  <si>
     <t>Change any data with pdf file</t>
   </si>
   <si>
@@ -175,15 +169,6 @@
     <t>invalid additional field</t>
   </si>
   <si>
-    <t>Wal@nut</t>
-  </si>
-  <si>
-    <t>West Vegan</t>
-  </si>
-  <si>
-    <t>Indiaaa</t>
-  </si>
-  <si>
     <t>team123@gmail.com</t>
   </si>
   <si>
@@ -358,31 +343,34 @@
     <t>inavlid endpoint</t>
   </si>
   <si>
-    <t>KAy141@gmail.com</t>
-  </si>
-  <si>
-    <t>2023-08-26T18:14:08.570Z</t>
-  </si>
-  <si>
-    <t>shrd2022@gmail.com</t>
-  </si>
-  <si>
-    <t>2024-09-26T18:14:08.570Z</t>
-  </si>
-  <si>
-    <t>shrd2032@gmail.com</t>
-  </si>
-  <si>
-    <t>2024-09-29T18:14:08.570Z</t>
-  </si>
-  <si>
-    <t>shre1234@gmail.com</t>
-  </si>
-  <si>
-    <t>Mario1070@gmail.com</t>
-  </si>
-  <si>
-    <t>KAy1455@gmail.com</t>
+    <t>KAy1157@gmail.com</t>
+  </si>
+  <si>
+    <t>Veg##</t>
+  </si>
+  <si>
+    <t>2023-09-19T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>2022-10-12T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>shrd1064@gmail.com</t>
+  </si>
+  <si>
+    <t>shrd1039@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-10-23T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>shre1237@gmail.com</t>
+  </si>
+  <si>
+    <t>Mario1045@gmail.com</t>
+  </si>
+  <si>
+    <t>KAy1123@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -823,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -831,10 +819,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -850,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2761C07-8EEF-424C-8E2D-5544ABDA6E0C}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,10 +887,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="3">
-        <v>3248649257</v>
+        <v>8628649275</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
@@ -914,10 +902,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="7">
-        <v>32840</v>
+        <v>30270</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
@@ -928,83 +916,83 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>8608306867</v>
+        <v>8628306875</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="6">
-        <v>32623</v>
+        <v>31887</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>3457899</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>8408305647</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="6">
         <v>31865</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1023,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93535F0-6035-4EDE-887A-CE1201C26BCB}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3">
-        <v>3248649255</v>
+        <v>8628649277</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
@@ -1086,13 +1074,13 @@
         <v>15</v>
       </c>
       <c r="H2" s="7">
-        <v>33967</v>
+        <v>30270</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1100,13 +1088,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3">
-        <v>3248649255</v>
+        <v>8628649277</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -1118,13 +1106,13 @@
         <v>15</v>
       </c>
       <c r="H3" s="7">
-        <v>33937</v>
+        <v>31366</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1132,13 +1120,13 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3">
-        <v>3248649253</v>
+        <v>8628649277</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -1150,13 +1138,13 @@
         <v>15</v>
       </c>
       <c r="H4" s="7">
-        <v>33967</v>
+        <v>31366</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1164,31 +1152,31 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
-        <v>3248649253</v>
+        <v>8628649257</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>100</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H5" s="7">
-        <v>33967</v>
+        <v>32826</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1201,14 +1189,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{5FC30086-0FD1-44DF-94A5-9E22212D0869}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{A2D994B3-51BC-42B8-AF2E-6454766E2303}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{3987B665-0136-4C24-9EFD-057587B1C236}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{0F3A3A78-92A9-48FC-9C8A-FB9AF8FD3B22}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{7650373E-8BAB-4A22-B95F-F0627991A046}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{63E097B7-8AA3-4AB2-855F-997ECA8A1C8E}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{6FAF78B9-733A-4154-A1B6-A93D6A65609E}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{B25E3206-177D-4620-A808-19B769A2DF3F}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{381F5265-7671-4F6A-873B-6AED37C13B9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1224,19 +1211,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1301,119 +1288,119 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5000003031</v>
+        <v>5000003042</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>160741</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5000003021</v>
+        <v>5000003027</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>160741</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H4">
         <v>897676</v>
@@ -1422,30 +1409,30 @@
         <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>897676</v>
@@ -1454,7 +1441,7 @@
         <v>89</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1462,22 +1449,22 @@
         <v>456</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>897676</v>
@@ -1486,7 +1473,7 @@
         <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1494,28 +1481,28 @@
         <v>5000003030</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H7" s="9">
         <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1524,7 +1511,7 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
@@ -1539,31 +1526,31 @@
         <v>5000003006</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H9">
         <v>160741</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1571,34 +1558,34 @@
         <v>5000003007</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H10">
         <v>160741</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1606,34 +1593,34 @@
         <v>5000003008</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H11">
         <v>160741</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1641,34 +1628,34 @@
         <v>5000003009</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H12">
         <v>160741</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1676,34 +1663,34 @@
         <v>5000003010</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H13">
         <v>160741</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1744,89 +1731,89 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5100000201</v>
+        <v>5100000231</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H2">
         <v>100000</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H3">
         <v>76</v>
@@ -1835,7 +1822,7 @@
         <v>89</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1843,34 +1830,34 @@
         <v>5100000002</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H4">
         <v>100000</v>
       </c>
       <c r="I4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s">
         <v>96</v>
-      </c>
-      <c r="J4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1878,34 +1865,34 @@
         <v>5100000003</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H5">
         <v>100000</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1913,34 +1900,34 @@
         <v>5100000004</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H6">
         <v>100000</v>
       </c>
       <c r="I6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Team01_APINinja_Data.xlsx
+++ b/src/test/resources/Team01_APINinja_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanj\vino-workspace\Team01_API_Ninja\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD814A6-9E25-4CF2-BE2D-30DA8152B58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC61154C-68A3-44EA-AC79-055ED3C992C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" r:id="rId1"/>
@@ -349,28 +349,28 @@
     <t>Veg##</t>
   </si>
   <si>
-    <t>2023-09-19T18:14:08.570Z</t>
-  </si>
-  <si>
-    <t>2022-10-12T18:14:08.570Z</t>
-  </si>
-  <si>
-    <t>shrd1064@gmail.com</t>
-  </si>
-  <si>
-    <t>shrd1039@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-10-23T18:14:08.570Z</t>
-  </si>
-  <si>
-    <t>shre1237@gmail.com</t>
-  </si>
-  <si>
-    <t>Mario1045@gmail.com</t>
-  </si>
-  <si>
-    <t>KAy1123@gmail.com</t>
+    <t>shre1232@gmail.com</t>
+  </si>
+  <si>
+    <t>KAy1126@gmail.com</t>
+  </si>
+  <si>
+    <t>Mario1046@gmail.com</t>
+  </si>
+  <si>
+    <t>2021-09-21T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>2021-11-12T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>shrd1067@gmail.com</t>
+  </si>
+  <si>
+    <t>shrd1041@gmail.com</t>
+  </si>
+  <si>
+    <t>2018-10-13T18:14:08.570Z</t>
   </si>
 </sst>
 </file>
@@ -887,10 +887,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="3">
-        <v>8628649275</v>
+        <v>8628649286</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
@@ -902,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="7">
-        <v>30270</v>
+        <v>32096</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
@@ -916,10 +916,10 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>8628306875</v>
+        <v>8628306886</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -931,7 +931,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="6">
-        <v>31887</v>
+        <v>30426</v>
       </c>
       <c r="K3" t="s">
         <v>23</v>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93535F0-6035-4EDE-887A-CE1201C26BCB}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,10 +1059,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="3">
-        <v>8628649277</v>
+        <v>8628649288</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
@@ -1074,7 +1074,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="7">
-        <v>30270</v>
+        <v>32096</v>
       </c>
       <c r="K2" t="s">
         <v>39</v>
@@ -1091,10 +1091,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="3">
-        <v>8628649277</v>
+        <v>8628649288</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -1106,7 +1106,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="7">
-        <v>31366</v>
+        <v>32827</v>
       </c>
       <c r="K3" t="s">
         <v>39</v>
@@ -1123,10 +1123,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="3">
-        <v>8628649277</v>
+        <v>8628649288</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -1138,7 +1138,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="7">
-        <v>31366</v>
+        <v>32827</v>
       </c>
       <c r="K4" t="s">
         <v>39</v>
@@ -1190,9 +1190,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{63E097B7-8AA3-4AB2-855F-997ECA8A1C8E}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{6FAF78B9-733A-4154-A1B6-A93D6A65609E}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{B25E3206-177D-4620-A808-19B769A2DF3F}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{381F5265-7671-4F6A-873B-6AED37C13B9E}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{DC24A4E9-9A1F-4040-882E-C30CCA659D3D}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{BF66C96A-1F01-4144-B5E2-9A98133A176B}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{83F8862C-8FB9-4DCC-BD1D-E0EA7AE91E2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
@@ -1270,7 +1270,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,16 +1320,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5000003042</v>
+        <v>5000003067</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
         <v>62</v>
@@ -1352,16 +1352,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5000003027</v>
+        <v>5000003067</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
         <v>67</v>
@@ -1712,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0117F567-C23E-457A-B636-6C283C408E37}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,16 +1763,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5100000231</v>
+        <v>5100000232</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>

--- a/src/test/resources/Team01_APINinja_Data.xlsx
+++ b/src/test/resources/Team01_APINinja_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanj\vino-workspace\Team01_API_Ninja\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC61154C-68A3-44EA-AC79-055ED3C992C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E389F97-05A3-4638-8FDD-11ED2EF4F13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{A03F8C01-D493-49E0-BA62-9B2727C7C8D7}"/>
   </bookViews>
@@ -349,28 +349,28 @@
     <t>Veg##</t>
   </si>
   <si>
-    <t>shre1232@gmail.com</t>
-  </si>
-  <si>
-    <t>KAy1126@gmail.com</t>
-  </si>
-  <si>
-    <t>Mario1046@gmail.com</t>
-  </si>
-  <si>
-    <t>2021-09-21T18:14:08.570Z</t>
-  </si>
-  <si>
-    <t>2021-11-12T18:14:08.570Z</t>
-  </si>
-  <si>
-    <t>shrd1067@gmail.com</t>
-  </si>
-  <si>
-    <t>shrd1041@gmail.com</t>
-  </si>
-  <si>
-    <t>2018-10-13T18:14:08.570Z</t>
+    <t>Mario1050@gmail.com</t>
+  </si>
+  <si>
+    <t>KAy1130@gmail.com</t>
+  </si>
+  <si>
+    <t>1997-09-22T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>1996-12-12T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>shrd1071@gmail.com</t>
+  </si>
+  <si>
+    <t>shrd1046@gmail.com</t>
+  </si>
+  <si>
+    <t>2018-10-14T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>shre1234@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -887,7 +887,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="3">
-        <v>8628649286</v>
+        <v>8628649290</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>103</v>
@@ -902,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="7">
-        <v>32096</v>
+        <v>32100</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
@@ -916,10 +916,10 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>8628306886</v>
+        <v>8628306890</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -931,7 +931,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="6">
-        <v>30426</v>
+        <v>30428</v>
       </c>
       <c r="K3" t="s">
         <v>23</v>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1059,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="3">
-        <v>8628649288</v>
+        <v>8628649299</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>103</v>
@@ -1074,7 +1074,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="7">
-        <v>32096</v>
+        <v>32100</v>
       </c>
       <c r="K2" t="s">
         <v>39</v>
@@ -1091,7 +1091,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="3">
-        <v>8628649288</v>
+        <v>8628649299</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>103</v>
@@ -1106,7 +1106,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="7">
-        <v>32827</v>
+        <v>32101</v>
       </c>
       <c r="K3" t="s">
         <v>39</v>
@@ -1123,7 +1123,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="3">
-        <v>8628649288</v>
+        <v>8628649299</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>103</v>
@@ -1138,7 +1138,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="7">
-        <v>32827</v>
+        <v>32101</v>
       </c>
       <c r="K4" t="s">
         <v>39</v>
@@ -1190,9 +1190,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{63E097B7-8AA3-4AB2-855F-997ECA8A1C8E}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{DC24A4E9-9A1F-4040-882E-C30CCA659D3D}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{BF66C96A-1F01-4144-B5E2-9A98133A176B}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{83F8862C-8FB9-4DCC-BD1D-E0EA7AE91E2D}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{B8BCD489-DE53-4C92-AF39-987C61B26E37}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{BDCE8A8C-561E-4BFC-BE72-DF4822EE3252}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{AB7A394A-6B91-480D-8EB5-7EFFB37C0B36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
@@ -1320,16 +1320,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5000003067</v>
+        <v>5000003063</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
         <v>62</v>
@@ -1352,16 +1352,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5000003067</v>
+        <v>5000003063</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
         <v>67</v>
@@ -1713,7 +1713,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,16 +1763,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5100000232</v>
+        <v>5100000237</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
